--- a/个人工作/每日工作.xlsx
+++ b/个人工作/每日工作.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="11- 20" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="12-4" sheetId="9" r:id="rId9"/>
     <sheet name="12-8" sheetId="11" r:id="rId10"/>
     <sheet name="12-10" sheetId="12" r:id="rId11"/>
+    <sheet name="12-15" sheetId="13" r:id="rId12"/>
+    <sheet name="12-16" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
   <si>
     <t>当车辆小于6台 电泳件为6时出车队列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +350,14 @@
   </si>
   <si>
     <t>冲压图片维护 》》冲压主数据维护菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcats接口文档的编写；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vcats接口的开发工作；</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1485,443 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.21875" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
